--- a/data/coin_desk_data.xlsx
+++ b/data/coin_desk_data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="21-04-2025" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ada" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="27-04-2025" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1360,7 +1361,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>BTC
 $88,156.78
@@ -1368,7 +1369,7 @@
 4.19%</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>ETH
 $1,635.65
@@ -1376,7 +1377,7 @@
 3.51%</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>USDT
 $1.0001
@@ -1384,7 +1385,7 @@
 0.03%</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>XRP
 $2.1316
@@ -1392,7 +1393,7 @@
 3.53%</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>BNB
 $604.09
@@ -1400,10 +1401,995 @@
 2.37%</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>SOL
 $139.63</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr"/>
+      <c r="H1" s="0" t="inlineStr"/>
+      <c r="I1" s="0" t="inlineStr"/>
+      <c r="J1" s="0" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr"/>
+      <c r="B2" s="0" t="inlineStr"/>
+      <c r="C2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr"/>
+      <c r="F2" s="0" t="inlineStr"/>
+      <c r="G2" s="0" t="inlineStr"/>
+      <c r="H2" s="0" t="inlineStr"/>
+      <c r="I2" s="0" t="inlineStr"/>
+      <c r="J2" s="0" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr"/>
+      <c r="B3" s="0" t="inlineStr"/>
+      <c r="C3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr"/>
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="inlineStr"/>
+      <c r="H3" s="0" t="inlineStr"/>
+      <c r="I3" s="0" t="inlineStr"/>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Sign In</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr"/>
+      <c r="B4" s="0" t="inlineStr"/>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Crypto Daybook Americas: Bitcoin Breakout Lifts AI, Memecoins, Underscores Hedge Value</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>OMKAR GODBOLE</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>SHAURYA MALWA</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr"/>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Can Bitcoin Save America?: CoinDesk Spotlight with Senator Cynthia Lummis</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>LATEST CRYPTO NEWS</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>1 HOUR AGO
+CoinDesk 20 Performance Update: NEAR Gains 11.7%, Leading Index Higher Over Weekend</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>1 HOUR AGO
+Coinbase-Backed Zora to Airdrop Token After a Week of Contentious Promotions</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2 HOURS AGO
+Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>3 HOURS AGO
+Crypto Daybook Americas: Bitcoin Breakout Lifts AI, Memecoins, Underscores Hedge Value</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>6 HOURS AGO
+Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>7 HOURS AGO
+Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>7 HOURS AGO
+BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>8 HOURS AGO
+Metaplanet Buys Another 330 BTC as BTC Moves Above $87K</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>9 HOURS AGO
+Over $380M Worth of Crypto Stolen During Bybit's $1.4B Hack Has Gone Dark</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>12 HOURS AGO
+Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>21 HOURS AGO
+Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>APR 20, 2025
+XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+Trump's Official Memecoin Surges Despite Massive $320 Million Unlock in Thin Holiday Trading</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+Slovenia Moves to Tax Crypto Profits at 25%</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+Unpacking the DOJ's Crypto Enforcement Memo</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+Canary Capital Files for Tron ETF With Staking Capabilities</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+Feds Mistakenly Order Estonian HashFlare Fraudsters to Self-Deport Ahead of Sentencing</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>APR 19, 2025
+CoinDesk Weekly Recap: EigenLayer, Kraken, Coinbase, AWS</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>APR 18, 2025
+The Case for User-Owned AI</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>APR 18, 2025
+Crypto Exchange Kraken Launches FX Perpetual Futures, Offers 24/7 Trading in Forex Majors</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>DEX+ by MEXC: Building the Easiest Way to Trade On-Chain Assets</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>MEXC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr"/>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Over $380M Worth of Crypto Stolen During Bybit's $1.4B Hack Has Gone Dark</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Metaplanet Buys Another 330 BTC as BTC Moves Above $87K</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr"/>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>NEWSLETTERS</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>terms of use</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Crypto Daybook Americas</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Crypto for Advisors</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>The Protocol</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Crypto Long &amp; Short</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>The Node</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>State of Crypto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin Is About to be Hit With 'Significant Volatility' Imminently, CryptoQuant Warns</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>HELENE BRAUN</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr"/>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>OMKAR GODBOLE</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>OMKAR GODBOLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>OMKAR GODBOLE</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>HashKey Capital to Debut Asian XRP Tracker Fund With Ripple as Anchor Investor</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO RODRIGUES</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>IAN ALLISON</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin in Standstill at $85K as Trump Increases Pressure on Fed's Powell</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>KRISZTIAN SANDOR</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>HELENE BRAUN</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>OMKAR GODBOLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Stellar Sees $3B of Real World Assets Coming On-Chain in 2025</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>IAN ALLISON</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Trump's Official Memecoin Surges Despite Massive $320 Million Unlock in Thin Holiday Trading</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO RODRIGUES</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>JAMES VAN STRATEN</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>OPINION</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>The Case for User-Owned AI</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>DAVID MINARSCH</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Criminals Are Watching the DOJ’s Crypto Shift. So Should We</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>YOAV KEREN</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr"/>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Market, Data Suggests Favorable Outlook for Bitcoin — CoinDesk Indices</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>ANDY BAEHR</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Crypto’s Biggest Barrier to Adoption? It’s Not Regulation — It’s UX</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>KATELYN PERNA</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr"/>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>PRESS RELEASES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan Establishes a Crypto Hub: A7A5 Stablecoin Debuts on Regulated Meer Exchange</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr"/>
+      <c r="C13" s="0" t="inlineStr"/>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr"/>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>CONSENSUS TORONTO</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>PODCASTS</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr"/>
+      <c r="I13" s="0" t="inlineStr"/>
+      <c r="J13" s="0" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr"/>
+      <c r="B14" s="0" t="inlineStr"/>
+      <c r="C14" s="0" t="inlineStr"/>
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr"/>
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Markets Daily Crypto Roundup</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Gen C</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>MARKETS</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Coinbase-Backed Zora to Airdrop Token After a Week of Contentious Promotions</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr"/>
+      <c r="B15" s="0" t="inlineStr"/>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>FINANCE</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr"/>
+      <c r="I15" s="0" t="inlineStr"/>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Crypto Exchange Kraken Launches FX Perpetual Futures, Offers 24/7 Trading in Forex Majors</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>HashKey Capital to Debut Asian XRP Tracker Fund With Ripple as Anchor Investor</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Friends With Benefits Grows Up</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr"/>
+      <c r="F16" s="0" t="inlineStr"/>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>KiloEx's KILO Token Surges as Funds Recovered Swiftly After ‘Sophisticated’ Hack</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>EigenLayer Adds Key ‘Slashing’ Feature, Completing Original Vision</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>Ethena, Securitize Target Q2 Mainnet Launch for RWA-Focused Blockchain, Tap Arbitrum, Celestia</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>POLICY</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Slovenia Moves to Tax Crypto Profits at 25%</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr"/>
+      <c r="C17" s="0" t="inlineStr"/>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Canary Capital Files for Tron ETF With Staking Capabilities</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Feds Mistakenly Order Estonian HashFlare Fraudsters to Self-Deport Ahead of Sentencing</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Leaders of $190M Brazilian Crypto Ponzi Scheme Sentenced to Over 170 Years in Prison</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>CONSENSUS MAGAZINE</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Why Blockbuster Games Will Soon Be Built on Modular Appchains</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr"/>
+      <c r="J17" s="0" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>How Digital Collectibles Are Shaping Athlete Legacies</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>From Coin-Operated Machines to Token-Operated Gaming</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Bragging Rights Are Key to Retaining Web3 Gamers</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>LEARN</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>How to Buy Solana</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>What Is Restaking? What Is Liquid Restaking? What Is EigenLayer?</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>A Beginner’s Guide to AI Tokens</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>What Is the ERC-7265 Token Standard?</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr"/>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Masthead</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Careers</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>CoinDesk News</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Crypto API Documentation</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Contact Us</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Accessibility</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>Advertise</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr"/>
+      <c r="B20" s="0" t="inlineStr"/>
+      <c r="C20" s="0" t="inlineStr"/>
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr"/>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Sitemap</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>System Status</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>award-winning</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>editorial policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Ethics</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Privacy</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Terms of Use</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Cookie Settings</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Do Not Sell My Info</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="G21" s="0" t="inlineStr"/>
+      <c r="H21" s="0" t="inlineStr"/>
+      <c r="I21" s="0" t="inlineStr"/>
+      <c r="J21" s="0" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr"/>
+      <c r="B22" s="0" t="inlineStr"/>
+      <c r="C22" s="0" t="inlineStr"/>
+      <c r="D22" s="0" t="inlineStr"/>
+      <c r="E22" s="0" t="inlineStr"/>
+      <c r="F22" s="0" t="inlineStr"/>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Privacy Policy</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr"/>
+      <c r="I22" s="0" t="inlineStr"/>
+      <c r="J22" s="0" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr"/>
+      <c r="B23" s="0" t="inlineStr"/>
+      <c r="C23" s="0" t="inlineStr"/>
+      <c r="D23" s="0" t="inlineStr"/>
+      <c r="E23" s="0" t="inlineStr"/>
+      <c r="F23" s="0" t="inlineStr"/>
+      <c r="G23" s="0" t="inlineStr"/>
+      <c r="H23" s="0" t="inlineStr"/>
+      <c r="I23" s="0" t="inlineStr"/>
+      <c r="J23" s="0" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr"/>
+      <c r="B24" s="0" t="inlineStr"/>
+      <c r="C24" s="0" t="inlineStr"/>
+      <c r="D24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="inlineStr"/>
+      <c r="F24" s="0" t="inlineStr"/>
+      <c r="G24" s="0" t="inlineStr"/>
+      <c r="H24" s="0" t="inlineStr"/>
+      <c r="I24" s="0" t="inlineStr"/>
+      <c r="J24" s="0" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr"/>
+      <c r="B25" s="0" t="inlineStr"/>
+      <c r="C25" s="0" t="inlineStr"/>
+      <c r="D25" s="0" t="inlineStr"/>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Sponsored</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr"/>
+      <c r="G25" s="0" t="inlineStr"/>
+      <c r="H25" s="0" t="inlineStr"/>
+      <c r="I25" s="0" t="inlineStr"/>
+      <c r="J25" s="0" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr"/>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Videos</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr"/>
+      <c r="D26" s="0" t="inlineStr"/>
+      <c r="E26" s="0" t="inlineStr"/>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Podcasts</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr"/>
+      <c r="H26" s="0" t="inlineStr"/>
+      <c r="I26" s="0" t="inlineStr"/>
+      <c r="J26" s="0" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Newsletters</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr"/>
+      <c r="D27" s="0" t="inlineStr"/>
+      <c r="E27" s="0" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Webinars &amp; Events</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr"/>
+      <c r="J27" s="0" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Español</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Filipino</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Français</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Русский</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>Українська</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BTC
+$94,445.44
+-
+0.36%</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ETH
+$1,817.07
++
+1.03%</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>USDT
+$1.0003
+-
+0.01%</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>XRP
+$2.1777
+-
+0.71%</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>BNB
+$601.15
+-
+0.22%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SOL
+$147.40</t>
         </is>
       </c>
       <c r="G1" t="inlineStr"/>
@@ -1444,337 +2430,337 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Crypto Daybook Americas: Bitcoin Breakout Lifts AI, Memecoins, Underscores Hedge Value</t>
+          <t>Bitcoin Poised for Strongest Weekly Gain Since Trump Win as ETFs Gobble $2.7B Inflows</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OMKAR GODBOLE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SHAURYA MALWA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>KRISZTIAN SANDOR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BITCOIN SEASON 2: 5 Facts You Didn’t Know About Bitcoin!</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Can Bitcoin Save America?: CoinDesk Spotlight with Senator Cynthia Lummis</t>
+          <t>LATEST CRYPTO NEWS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LATEST CRYPTO NEWS</t>
+          <t>7 HOURS AGO
+Trump Token's 85% Weekly Surge Defies Democrats' Call for Impeachment, Massive Unlocks</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1 HOUR AGO
-CoinDesk 20 Performance Update: NEAR Gains 11.7%, Leading Index Higher Over Weekend</t>
+          <t>9 HOURS AGO
+GameFi Tokens Show Signs of Life After Gala Games, White House Tie-Up</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1 HOUR AGO
-Coinbase-Backed Zora to Airdrop Token After a Week of Contentious Promotions</t>
+          <t>9 HOURS AGO
+Stripe Tests New Stablecoin Project as $3.7T Market Looms</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 HOURS AGO
-Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
+          <t>10 HOURS AGO
+DeFi Development Plans to Raise $1 Billion to Buy More Solana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 HOURS AGO
-Crypto Daybook Americas: Bitcoin Breakout Lifts AI, Memecoins, Underscores Hedge Value</t>
+          <t>APR 26, 2025
+Bitcoin Poised for Strongest Weekly Gain Since Trump Win as ETFs Gobble $2.7B Inflows</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6 HOURS AGO
-Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+          <t>APR 26, 2025
+Swiss National Bank Rejects Calls to Add Bitcoin Reserves</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7 HOURS AGO
-Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+          <t>APR 26, 2025
+CoinDesk Announces Consensus 2026 in Miami</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7 HOURS AGO
-BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
+          <t>APR 26, 2025
+DOGE Mining Firm Z Squared To Go Public Through Merger</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8 HOURS AGO
-Metaplanet Buys Another 330 BTC as BTC Moves Above $87K</t>
+          <t>APR 26, 2025
+Stablecoins Could Bring 'ChatGPT' Moment to Blockchain Adoption, Hit $3.7T by 2030: Citi</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9 HOURS AGO
-Over $380M Worth of Crypto Stolen During Bybit's $1.4B Hack Has Gone Dark</t>
+          <t>APR 26, 2025
+New SEC Chief Atkins Says Agency Doesn't Have to Wait to Impose Crypto Policy</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12 HOURS AGO
-Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
+          <t>APR 25, 2025
+CoinDesk Weekly Recap: Finally, the Bitcoin Rally</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21 HOURS AGO
-Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+          <t>APR 25, 2025
+Nasdaq Tells SEC Precise Crypto Labeling Will Be Everything in Future Regulation</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>APR 20, 2025
-XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+          <t>APR 25, 2025
+Dinner With the U.S. President? All You Need Is $420 Worth of TRUMP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-Trump's Official Memecoin Surges Despite Massive $320 Million Unlock in Thin Holiday Trading</t>
+          <t>APR 25, 2025
+CoinDesk 20 Performance Update: SUI Surges 13.7% as Index Trades Higher from Thursday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-Slovenia Moves to Tax Crypto Profits at 25%</t>
+          <t>APR 25, 2025
+Shiba Inu Breaks Free From Downtrend as Bitcoin Eyes $100K, Dogecoin Sees Accumulation Around 18 Cents</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-Unpacking the DOJ's Crypto Enforcement Memo</t>
+          <t>APR 25, 2025
+Semler Scientific Pushes Bitcoin Stack to Over 3,300 BTC With $10M Buy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-Canary Capital Files for Tron ETF With Staking Capabilities</t>
+          <t>APR 25, 2025
+Crypto Daybook Americas: SUI, STX Outperform as Bitcoin Whales Position for Gains</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-Feds Mistakenly Order Estonian HashFlare Fraudsters to Self-Deport Ahead of Sentencing</t>
+          <t>APR 25, 2025
+BlackRock’s Bitcoin ETF Will Be the World’s Biggest ETF in a Decade, Michael Saylor Says</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>APR 19, 2025
-CoinDesk Weekly Recap: EigenLayer, Kraken, Coinbase, AWS</t>
+          <t>APR 25, 2025
+Bitcoin Whales Return in Force, Buy the BTC Price Rally, On-Chain Data Show</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>APR 18, 2025
-The Case for User-Owned AI</t>
+          <t>APR 25, 2025
+ARK Invest Raises 2030 Bitcoin Price Target to as High as $2.4M in Bullish Scenario</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>APR 18, 2025
-Crypto Exchange Kraken Launches FX Perpetual Futures, Offers 24/7 Trading in Forex Majors</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>DEX+ by MEXC: Building the Easiest Way to Trade On-Chain Assets</t>
-        </is>
-      </c>
+          <t>From Aid to Efficiency: Why the Stellar Blockchain Is the Future of Government Spending</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MEXC</t>
+          <t>Trump Token's 85% Weekly Surge Defies Democrats' Call for Impeachment, Massive Unlocks</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GameFi Tokens Show Signs of Life After Gala Games, White House Tie-Up</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Over $380M Worth of Crypto Stolen During Bybit's $1.4B Hack Has Gone Dark</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Metaplanet Buys Another 330 BTC as BTC Moves Above $87K</t>
-        </is>
-      </c>
+          <t>Swiss National Bank President Reportedly Dismisses Bitcoin as Reserve Asset</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>DeFi Development Plans to Raise $1 Billion to Buy More Solana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CoinDesk Announces Consensus 2026 in Miami</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
-        </is>
-      </c>
+          <t>Stripe Tests New Stablecoin Project as $3.7T Market Looms</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>CoinDesk Weekly Recap: Finally, the Bitcoin Rally</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>BlackRock’s Bitcoin ETF Will Be the World’s Biggest ETF in a Decade, Michael Saylor Says</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+          <t>NEWSLETTERS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+          <t>terms of use</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEWSLETTERS</t>
+          <t>privacy policy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>terms of use</t>
+          <t>Crypto Daybook Americas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>privacy policy</t>
+          <t>Crypto for Advisors</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Crypto Daybook Americas</t>
+          <t>The Protocol</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Crypto for Advisors</t>
+          <t>Crypto Long &amp; Short</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The Protocol</t>
+          <t>The Node</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Crypto Long &amp; Short</t>
+          <t>State of Crypto</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>The Node</t>
+          <t>Bitcoin Traders Eye Long Term BTC Accumulation by Selling Put Options</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>State of Crypto</t>
+          <t>OMKAR GODBOLE</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bitcoin Is About to be Hit With 'Significant Volatility' Imminently, CryptoQuant Warns</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HELENE BRAUN</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bitcoin’s April Rally Driven by Institutions, While Retail Flees ETFs: Coinbase Exec</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SAM REYNOLDS</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+          <t>BlackRock’s Bitcoin ETF Will Be the World’s Biggest ETF in a Decade, Michael Saylor Says</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>OMKAR GODBOLE</t>
+          <t>JAMES VAN STRATEN</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>XRP Price Coiled for a Significant Move as Key Volatility Indicator Mirrors 2024 Patterns</t>
+          <t>Cantor Skyrockets 130% as Traders FOMO Into the Stock on Bitcoin SPAC Frenzy</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>OMKAR GODBOLE</t>
+          <t>JAMES VAN STRATEN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bitcoin Pushes Past $87K, Dollar Crashes as Trump Looks to Terminate Fed’s Powell</t>
+          <t>AI BOOST</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OMKAR GODBOLE</t>
+          <t>Strategy Stock Could Climb as New Rival Twenty One Validates Its Bitcoin Strategy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HashKey Capital to Debut Asian XRP Tracker Fund With Ripple as Anchor Investor</t>
+          <t>HELENE BRAUN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES</t>
+          <t>Strategy Stock Saw $180M in Failed Trades in March, Possible Short Squeeze Indicator</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
+          <t>JAMES VAN STRATEN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IAN ALLISON</t>
+          <t>AI BOOST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bitcoin in Standstill at $85K as Trump Increases Pressure on Fed's Powell</t>
+          <t>Dinner With the U.S. President? All You Need Is $420 Worth of TRUMP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>KRISZTIAN SANDOR</t>
+          <t>SHAURYA MALWA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HELENE BRAUN</t>
+          <t>Shiba Inu Breaks Free From Downtrend as Bitcoin Eyes $100K, Dogecoin Sees Accumulation Around 18 Cents</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1786,111 +2772,107 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stellar Sees $3B of Real World Assets Coming On-Chain in 2025</t>
+          <t>AI BOOST</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IAN ALLISON</t>
+          <t>Bitcoin Poised for Strongest Weekly Gain Since Trump Win as ETFs Gobble $2.7B Inflows</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trump's Official Memecoin Surges Despite Massive $320 Million Unlock in Thin Holiday Trading</t>
+          <t>KRISZTIAN SANDOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FRANCISCO RODRIGUES</t>
+          <t>ARK Invest Raises 2030 Bitcoin Price Target to as High as $2.4M in Bullish Scenario</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+          <t>JAMES VAN STRATEN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>JAMES VAN STRATEN</t>
+          <t>OPINION</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>OPINION</t>
+          <t>Stablecoin Legislation Must Ensure Financial Privacy</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>The Case for User-Owned AI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>DAVID MINARSCH</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>JENNIFER J. SCHULP</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Canada’s Blockchain Advantage: Small Enough to Move Fast, Big Enough to Matter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Criminals Are Watching the DOJ’s Crypto Shift. So Should We</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>YOAV KEREN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>WILLIAM MOUGAYAR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The AI Monetary Hegemony: Why Dollars, Crypto, and Autonomous AIs Will Soon Clash</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Market, Data Suggests Favorable Outlook for Bitcoin — CoinDesk Indices</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ANDY BAEHR</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ZOLTAN ISTVAN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Beyond Incentives: How to Build Durable DeFi</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crypto’s Biggest Barrier to Adoption? It’s Not Regulation — It’s UX</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>KATELYN PERNA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>JESUS RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PRESS RELEASES</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>PRESS RELEASES</t>
+          <t>SKYAI Launches Groundbreaking MCP Protocol, Igniting Web3 AI Revolution with Unprecedented Data Liquidity and Simplified Blockchain Access</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan Establishes a Crypto Hub: A7A5 Stablecoin Debuts on Regulated Meer Exchange</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CONSENSUS TORONTO Buy Your Tickets Now</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CONSENSUS TORONTO</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>PODCASTS</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1901,230 +2883,230 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Markets Daily Crypto Roundup</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Markets Daily Crypto Roundup</t>
+          <t>Gen C</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gen C</t>
+          <t>MARKETS</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>MARKETS</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Coinbase-Backed Zora to Airdrop Token After a Week of Contentious Promotions</t>
-        </is>
-      </c>
+          <t>Trump Token's 85% Weekly Surge Defies Democrats' Call for Impeachment, Massive Unlocks</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bitcoin Poised for Strongest Weekly Gain Since Trump Win as ETFs Gobble $2.7B Inflows</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strategy Buys $555M of Bitcoin, Increases Total Stash to 538,200 BTC</t>
+          <t>DOGE Mining Firm Z Squared To Go Public Through Merger</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bitcoin's Breakout Signals BTC Potentially Rallying to $90K-$92K: Technical Analysis</t>
+          <t>Stablecoins Could Bring 'ChatGPT' Moment to Blockchain Adoption, Hit $3.7T by 2030: Citi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BNB, SOL, XRP Spike Higher as Bitcoin 'Digital Gold' Narrative Makes a Comeback</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FINANCE</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Stablecoin Giant Circle Is Launching a New Payments and Remittance Network</t>
-        </is>
-      </c>
+          <t>Stripe Tests New Stablecoin Project as $3.7T Market Looms</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DeFi Development Plans to Raise $1 Billion to Buy More Solana</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Chart of the Week: 'Dire Picture' for BTC Miners as Revenue Flatlines Near Record Low</t>
+          <t>Coinbase Introduces Free Conversion for PayPal's PYUSD as Stablecoin Competition Intensifies</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Crypto Exchange Kraken Launches FX Perpetual Futures, Offers 24/7 Trading in Forex Majors</t>
+          <t>TON Foundation Appoints MoonPay Co-Founder, Maximilian Crown, as CEO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HashKey Capital to Debut Asian XRP Tracker Fund With Ripple as Anchor Investor</t>
+          <t>TECH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TECH</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Friends With Benefits Grows Up</t>
-        </is>
-      </c>
+          <t>North Korean Hackers Targeting Crypto Developers With U.S. Shell Firms</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Polygon Starts Aggregator Program, Successful Projects Will Airdrop Up to 15% Native Token to POL Stakers</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>KiloEx's KILO Token Surges as Funds Recovered Swiftly After ‘Sophisticated’ Hack</t>
+          <t>The Protocol: Will ETH Developers Swap Out the EVM for RISC-V?</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>EigenLayer Adds Key ‘Slashing’ Feature, Completing Original Vision</t>
+          <t>Bitcoin Rollup Citrea Deploys Bridge to Tackle Collateral Bottleneck of Using BTC in DeFi</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ethena, Securitize Target Q2 Mainnet Launch for RWA-Focused Blockchain, Tap Arbitrum, Celestia</t>
+          <t>POLICY</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>POLICY</t>
+          <t>New SEC Chief Atkins Says Agency Doesn't Have to Wait to Impose Crypto Policy</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Slovenia Moves to Tax Crypto Profits at 25%</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nasdaq Tells SEC Precise Crypto Labeling Will Be Everything in Future Regulation</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Canary Capital Files for Tron ETF With Staking Capabilities</t>
+          <t>Fed Joins OCC, FDIC in Withdrawing Crypto Warnings for U.S. Banks</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Feds Mistakenly Order Estonian HashFlare Fraudsters to Self-Deport Ahead of Sentencing</t>
+          <t>El Salvador's Top Crypto Regulator Meets With U.S. SEC: 'It Was Very Refreshing'</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Leaders of $190M Brazilian Crypto Ponzi Scheme Sentenced to Over 170 Years in Prison</t>
+          <t>CONSENSUS MAGAZINE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CONSENSUS MAGAZINE</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Why Blockbuster Games Will Soon Be Built on Modular Appchains</t>
-        </is>
-      </c>
+          <t>Canada’s Blockchain Advantage: Small Enough to Move Fast, Big Enough to Matter</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Dave Portnoy: Memecoins are ‘Legalized Ponzi Schemes’</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How Digital Collectibles Are Shaping Athlete Legacies</t>
+          <t>Maple Finance CEO Sidney Powell on Building the DeFi-Bond Bridge</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>From Coin-Operated Machines to Token-Operated Gaming</t>
+          <t>MoonPay's Ivan Soto-Wright Bets on a Non-Custodial, API-First Future for Crypto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bragging Rights Are Key to Retaining Web3 Gamers</t>
+          <t>LEARN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEARN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>How to Buy Solana</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>What Is Restaking? What Is Liquid Restaking? What Is EigenLayer?</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>What Is Restaking? What Is Liquid Restaking? What Is EigenLayer?</t>
+          <t>A Beginner’s Guide to AI Tokens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>A Beginner’s Guide to AI Tokens</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>What Is the ERC-7265 Token Standard?</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>About Us</t>
+          <t>Masthead</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Masthead</t>
+          <t>Careers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Careers</t>
+          <t>CoinDesk News</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CoinDesk News</t>
+          <t>Crypto API Documentation</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Crypto API Documentation</t>
+          <t>Contact Us</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Contact Us</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Accessibility</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
           <t>Advertise</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2133,54 +3115,54 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sitemap</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sitemap</t>
+          <t>System Status</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>System Status</t>
+          <t>award-winning</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>award-winning</t>
+          <t>editorial policies</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>editorial policies</t>
+          <t>Ethics</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ethics</t>
+          <t>Privacy</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Privacy</t>
+          <t>Terms of Use</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Terms of Use</t>
+          <t>Cookie Settings</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cookie Settings</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Do Not Sell My Info</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -2194,11 +3176,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Privacy Policy</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2230,100 +3208,105 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sponsored</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Sponsored</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Videos</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Videos</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Podcasts</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Podcasts</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Newsletters</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Newsletters</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Webinars &amp; Events</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Webinars &amp; Events</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Español</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Filipino</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Español</t>
+          <t>Français</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Filipino</t>
+          <t>Italiano</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Italiano</t>
+          <t>Русский</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Українська</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Русский</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Українська</t>
-        </is>
-      </c>
+          <t>Privacy Policy</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
